--- a/data/trans_dic/P32A-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P32A-Provincia-trans_dic.xlsx
@@ -708,33 +708,33 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01279055382458857</v>
+        <v>0.01285891153192029</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08573494330397426</v>
+        <v>0.08641259415830418</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0229718881391295</v>
+        <v>0.02444312946196712</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="n">
-        <v>0.01069597097942894</v>
+        <v>0.01108296261812357</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.008909997807970731</v>
+        <v>0.008821027189795806</v>
       </c>
       <c r="J5" s="5" t="inlineStr"/>
       <c r="K5" s="5" t="n">
-        <v>0.008612704613569274</v>
+        <v>0.008598207339182155</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.06467181898216773</v>
+        <v>0.06545699233220328</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02509830994247512</v>
+        <v>0.02231381638387006</v>
       </c>
       <c r="N5" s="5" t="n">
         <v>0</v>
@@ -748,36 +748,36 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07190685691062838</v>
+        <v>0.07381693494746487</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.190829655919009</v>
+        <v>0.1827493402608498</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.09511190087454263</v>
+        <v>0.09953310168510335</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04533235393016295</v>
+        <v>0.03730380382297282</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.1143231259921051</v>
+        <v>0.124662341779509</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1110300545002858</v>
+        <v>0.09880371628852176</v>
       </c>
       <c r="J6" s="5" t="inlineStr"/>
       <c r="K6" s="5" t="n">
-        <v>0.04867773199099944</v>
+        <v>0.04775498641967522</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1436333257459302</v>
+        <v>0.14313867093066</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.07944425324298066</v>
+        <v>0.0788128043348921</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.0284253552607518</v>
+        <v>0.02640606685960751</v>
       </c>
     </row>
     <row r="7">
@@ -801,7 +801,7 @@
         <v>0.02458966147304921</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.005447910291014314</v>
+        <v>0.005447910291014315</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0.02079108608940047</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.00374399720599057</v>
+        <v>0.003743997205990569</v>
       </c>
     </row>
     <row r="8">
@@ -836,13 +836,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.008964276606534401</v>
+        <v>0.009003616283998282</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.00311397098872253</v>
+        <v>0.003072790966168112</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.008416142937087265</v>
+        <v>0.008285803388457979</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
       </c>
       <c r="J8" s="5" t="inlineStr"/>
       <c r="K8" s="5" t="n">
-        <v>0.006716797638166879</v>
+        <v>0.006847540163170098</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.002248281330399798</v>
+        <v>0.002249694306125147</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.008985555767450051</v>
+        <v>0.008801987555152557</v>
       </c>
       <c r="N8" s="5" t="n">
         <v>0</v>
@@ -876,36 +876,36 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05033433419965389</v>
+        <v>0.05097168833694255</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04776875670030793</v>
+        <v>0.05049814393445515</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05249226267194323</v>
+        <v>0.05040299298586336</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02790308183461865</v>
+        <v>0.02919393200689502</v>
       </c>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="n">
-        <v>0.0348218771714061</v>
+        <v>0.03750253164054202</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0439365217475015</v>
+        <v>0.05454902814514595</v>
       </c>
       <c r="J9" s="5" t="inlineStr"/>
       <c r="K9" s="5" t="n">
-        <v>0.03535392112409436</v>
+        <v>0.03825051496220576</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02971404035920824</v>
+        <v>0.02988199348272157</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.0392403522665651</v>
+        <v>0.04370009504996026</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.01869259287088215</v>
+        <v>0.01923797501244081</v>
       </c>
     </row>
     <row r="10">
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02123772213604401</v>
+        <v>0.02186418336733133</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="inlineStr"/>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01757462506522316</v>
+        <v>0.01826869648348672</v>
       </c>
     </row>
     <row r="12">
@@ -1002,34 +1002,34 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02736108794240035</v>
+        <v>0.02750950961205572</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02604089407028452</v>
+        <v>0.02675523675421599</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02142783484036057</v>
+        <v>0.02093053569746001</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07290088447421608</v>
+        <v>0.07232898703344073</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.04503724330052858</v>
+        <v>0.03620530813553414</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0218559559131591</v>
+        <v>0.01903664120408536</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.014479494929765</v>
+        <v>0.01455012979507372</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01517140138166609</v>
+        <v>0.01325317942690448</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.05278767610803541</v>
+        <v>0.05323612715291735</v>
       </c>
     </row>
     <row r="13">
@@ -1053,7 +1053,7 @@
         <v>0.005429391700255496</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.01204367688755289</v>
+        <v>0.01204367688755288</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.007055016847126407</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.003167706130695023</v>
+        <v>0.00351024696987848</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
       <c r="H14" s="5" t="inlineStr"/>
       <c r="I14" s="5" t="inlineStr"/>
       <c r="J14" s="5" t="n">
-        <v>0.003215135493250908</v>
+        <v>0.003309291886859867</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.002481223847171682</v>
+        <v>0.002488724395277363</v>
       </c>
       <c r="L14" s="5" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.005047262171458616</v>
+        <v>0.005159167543715744</v>
       </c>
     </row>
     <row r="15">
@@ -1128,36 +1128,36 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02889496416564602</v>
+        <v>0.02886263445058503</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03502696012514662</v>
+        <v>0.0303227656177118</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02717341336160802</v>
+        <v>0.02983238308033477</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03194905499544143</v>
+        <v>0.03302323526134708</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03554101256336678</v>
+        <v>0.03529393844248207</v>
       </c>
       <c r="H15" s="5" t="inlineStr"/>
       <c r="I15" s="5" t="inlineStr"/>
       <c r="J15" s="5" t="n">
-        <v>0.03248386338885765</v>
+        <v>0.03626957063732205</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02113381430350047</v>
+        <v>0.02087416812178445</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02394657062535668</v>
+        <v>0.02364983236299621</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01965873929325185</v>
+        <v>0.02104112352561564</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.02750091230373247</v>
+        <v>0.02820892061156537</v>
       </c>
     </row>
     <row r="16">
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.0432873656001445</v>
+        <v>0.04328736560014451</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.006209140945782711</v>
@@ -1219,10 +1219,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01514422920586068</v>
+        <v>0.01492931161790132</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01015763531705711</v>
+        <v>0.01012528519885294</v>
       </c>
       <c r="F17" s="5" t="inlineStr"/>
       <c r="G17" s="5" t="inlineStr"/>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01256729593220898</v>
+        <v>0.01529486018508741</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.007182968729909577</v>
+        <v>0.007235728347161914</v>
       </c>
       <c r="N17" s="5" t="n">
         <v>0</v>
@@ -1254,34 +1254,34 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04770938414503432</v>
+        <v>0.04776059530045665</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09003717721022889</v>
+        <v>0.09555154029434847</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08393382088802516</v>
+        <v>0.08506614997988032</v>
       </c>
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="n">
-        <v>0.08439096078677492</v>
+        <v>0.08595823331427559</v>
       </c>
       <c r="I18" s="5" t="inlineStr"/>
       <c r="J18" s="5" t="n">
-        <v>0.2265955634043678</v>
+        <v>0.2021144240837146</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03131971100686781</v>
+        <v>0.03135316200476772</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.07307797850941206</v>
+        <v>0.06935145198358829</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.06057867690983829</v>
+        <v>0.05796216180401284</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.0530872509344586</v>
+        <v>0.06296477134755402</v>
       </c>
     </row>
     <row r="19">
@@ -1346,10 +1346,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.004715688419108351</v>
+        <v>0.004661664305602975</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01262348319663977</v>
+        <v>0.01316153841398717</v>
       </c>
       <c r="G20" s="5" t="inlineStr"/>
       <c r="H20" s="5" t="n">
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.005581450400035186</v>
+        <v>0.00557485496717549</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>0</v>
@@ -1368,10 +1368,10 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.0062735522434528</v>
+        <v>0.0062698572355905</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.0129741601900664</v>
+        <v>0.01316085621684938</v>
       </c>
     </row>
     <row r="21">
@@ -1382,38 +1382,38 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.04450005067468208</v>
+        <v>0.04423958504213863</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.0288436614375161</v>
+        <v>0.03128903950638606</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03935455590440755</v>
+        <v>0.03880786400019778</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.05848327126041906</v>
+        <v>0.05923138151861351</v>
       </c>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="n">
-        <v>0.05337241851784472</v>
+        <v>0.06173562683870821</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.06891822746251926</v>
+        <v>0.07216522751325836</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.06402643089175027</v>
+        <v>0.0632151330576879</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.02812738372936912</v>
+        <v>0.02844193367064298</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.02490235784247941</v>
+        <v>0.02419436461140957</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.04187336315371857</v>
+        <v>0.03623610663813428</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.05016239605351298</v>
+        <v>0.04948757119175624</v>
       </c>
     </row>
     <row r="22">
@@ -1475,35 +1475,35 @@
         <v>0</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.009985422477152015</v>
+        <v>0.01128632844060792</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02083668586051245</v>
+        <v>0.02011101110445547</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01168951982380888</v>
+        <v>0.01202456471890354</v>
       </c>
       <c r="G23" s="5" t="inlineStr"/>
       <c r="H23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.003990525275572648</v>
+        <v>0.004354952708013453</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.02689634188464581</v>
+        <v>0.02934465100324071</v>
       </c>
       <c r="K23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.008245687627298102</v>
+        <v>0.007940683631019903</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.01754550963426079</v>
+        <v>0.0180915938741429</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.0229688564251825</v>
+        <v>0.02304408231600554</v>
       </c>
     </row>
     <row r="24">
@@ -1514,38 +1514,38 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02226013087583989</v>
+        <v>0.02239994811523711</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05131844063185251</v>
+        <v>0.04736262531334345</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.0624590931329177</v>
+        <v>0.06246337143818176</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.04722527605197423</v>
+        <v>0.04629247633666985</v>
       </c>
       <c r="G24" s="5" t="inlineStr"/>
       <c r="H24" s="5" t="n">
-        <v>0.02414778084894985</v>
+        <v>0.02345095340899987</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.04120877557884259</v>
+        <v>0.04048270036846462</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1026898474746072</v>
+        <v>0.1005583754359936</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.01573723451315457</v>
+        <v>0.01308996511646001</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.03262244423242957</v>
+        <v>0.03134308651848629</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.04581484709382404</v>
+        <v>0.04730293840398679</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.05937901247736561</v>
+        <v>0.05883265826025655</v>
       </c>
     </row>
     <row r="25">
@@ -1569,7 +1569,7 @@
         <v>0.004101968478707366</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.009637724155896508</v>
+        <v>0.00963772415589651</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.008482682727762807</v>
@@ -1604,38 +1604,38 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.001570588541405085</v>
+        <v>0.001560765753405565</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.004462958121890431</v>
+        <v>0.006255744333635841</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.002355275113070718</v>
+        <v>0.002334143526586327</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="5" t="inlineStr"/>
       <c r="I26" s="5" t="n">
-        <v>0.00372366789580815</v>
+        <v>0.00407185963469165</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.002399667560747675</v>
+        <v>0.002259000960602372</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.003071950001470388</v>
+        <v>0.003062129027254438</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.003891922294928246</v>
+        <v>0.003949649326017045</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.002681967789666209</v>
+        <v>0.002500023508815358</v>
       </c>
     </row>
     <row r="27">
@@ -1646,38 +1646,38 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.0149842555424145</v>
+        <v>0.01400569727853696</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.03674516147418361</v>
+        <v>0.03902849379025223</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.0143691259015781</v>
+        <v>0.01250857690072698</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.02664144202567019</v>
+        <v>0.02817253641825528</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.02965499857108524</v>
+        <v>0.02862860820858499</v>
       </c>
       <c r="H27" s="5" t="inlineStr"/>
       <c r="I27" s="5" t="n">
-        <v>0.03661650932587528</v>
+        <v>0.03880950664409184</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.03587333527622548</v>
+        <v>0.03559659190862793</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.01418302380072766</v>
+        <v>0.01447462386374852</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.02640591273486571</v>
+        <v>0.02576246939363316</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.01717495764308798</v>
+        <v>0.01819787448977854</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.02255788902703698</v>
+        <v>0.01955227708470329</v>
       </c>
     </row>
     <row r="28">
@@ -1736,40 +1736,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.006553849995549054</v>
+        <v>0.006994169884733087</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.01814867028367212</v>
+        <v>0.01870920448803541</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.01440299018189199</v>
+        <v>0.01388254730379938</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.0129575261908821</v>
+        <v>0.01310594502918397</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.001031926920405972</v>
+        <v>0.0003932406261777745</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.00378960129705333</v>
+        <v>0.0039753201607172</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.007380111584790931</v>
+        <v>0.007565173891796469</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.01305299500146801</v>
+        <v>0.012725000987786</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.00534995931607798</v>
+        <v>0.005481135541557372</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.01501451755682503</v>
+        <v>0.0149960137151997</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.01342338800477017</v>
+        <v>0.01351940162931248</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.01462620364488456</v>
+        <v>0.01460905786503916</v>
       </c>
     </row>
     <row r="30">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.01605121709184693</v>
+        <v>0.01666670361010787</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.03381922781528899</v>
+        <v>0.03338733225922886</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.02673361592792014</v>
+        <v>0.02720169174189093</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.02549346045865339</v>
+        <v>0.02524922090805205</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.009080710637896481</v>
+        <v>0.009046118031454085</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.01712486952277045</v>
+        <v>0.01705469296001155</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.02268570669374467</v>
+        <v>0.02225593362223846</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.03483249737062398</v>
+        <v>0.03487899208158756</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.01237587289231625</v>
+        <v>0.01255567199229491</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.02559755530060259</v>
+        <v>0.0256594154309164</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.02272798605609453</v>
+        <v>0.02328616081257612</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.02507357394948062</v>
+        <v>0.02553641941051289</v>
       </c>
     </row>
     <row r="31">
@@ -2088,33 +2088,33 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1869</v>
+        <v>1879</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>15031</v>
+        <v>15150</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4104</v>
+        <v>4367</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>1173</v>
+        <v>1216</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="J6" s="6" t="inlineStr"/>
       <c r="K6" s="6" t="n">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>18433</v>
+        <v>18656</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>7149</v>
+        <v>6356</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0</v>
@@ -2128,36 +2128,36 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>10509</v>
+        <v>10788</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>33457</v>
+        <v>32041</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>16994</v>
+        <v>17784</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>7702</v>
+        <v>6338</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>12540</v>
+        <v>13674</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>11787</v>
+        <v>10489</v>
       </c>
       <c r="J7" s="6" t="inlineStr"/>
       <c r="K7" s="6" t="n">
-        <v>10691</v>
+        <v>10488</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>40938</v>
+        <v>40797</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>22628</v>
+        <v>22448</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>7593</v>
+        <v>7054</v>
       </c>
     </row>
     <row r="8">
@@ -2260,13 +2260,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2051</v>
+        <v>2060</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>962</v>
+        <v>950</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2253</v>
+        <v>2218</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
@@ -2280,13 +2280,13 @@
       </c>
       <c r="J10" s="6" t="inlineStr"/>
       <c r="K10" s="6" t="n">
-        <v>2026</v>
+        <v>2065</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>3325</v>
+        <v>3257</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0</v>
@@ -2300,36 +2300,36 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>11517</v>
+        <v>11663</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>14764</v>
+        <v>15608</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>14054</v>
+        <v>13495</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>7071</v>
+        <v>7399</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>5271</v>
+        <v>5676</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>4493</v>
+        <v>5578</v>
       </c>
       <c r="J11" s="6" t="inlineStr"/>
       <c r="K11" s="6" t="n">
-        <v>10662</v>
+        <v>11535</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>13681</v>
+        <v>13759</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>14519</v>
+        <v>16169</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>6893</v>
+        <v>7094</v>
       </c>
     </row>
     <row r="12">
@@ -2441,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3978</v>
+        <v>4095</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>4860</v>
+        <v>5052</v>
       </c>
     </row>
     <row r="15">
@@ -2470,34 +2470,34 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5306</v>
+        <v>5335</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>5246</v>
+        <v>5390</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4395</v>
+        <v>4293</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>13655</v>
+        <v>13548</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>4018</v>
+        <v>3230</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>6118</v>
+        <v>5329</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>4706</v>
+        <v>4729</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>4956</v>
+        <v>4330</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>14597</v>
+        <v>14721</v>
       </c>
     </row>
     <row r="16">
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>642</v>
+        <v>711</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
       <c r="H18" s="6" t="inlineStr"/>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="n">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="L18" s="6" t="n">
         <v>0</v>
@@ -2629,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1721</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="19">
@@ -2640,36 +2640,36 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6874</v>
+        <v>6866</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>6691</v>
+        <v>5793</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>6343</v>
+        <v>6963</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>6475</v>
+        <v>6692</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>4653</v>
+        <v>4621</v>
       </c>
       <c r="H19" s="6" t="inlineStr"/>
       <c r="I19" s="6" t="inlineStr"/>
       <c r="J19" s="6" t="n">
-        <v>4495</v>
+        <v>5018</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>7795</v>
+        <v>7699</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>6666</v>
+        <v>6583</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>7592</v>
+        <v>8126</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>9378</v>
+        <v>9620</v>
       </c>
     </row>
     <row r="20">
@@ -2775,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1942</v>
+        <v>1914</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="F22" s="6" t="inlineStr"/>
       <c r="G22" s="6" t="inlineStr"/>
@@ -2793,10 +2793,10 @@
         <v>0</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>2291</v>
+        <v>2789</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0</v>
@@ -2810,34 +2810,34 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>4623</v>
+        <v>4628</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>11543</v>
+        <v>12250</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>7653</v>
+        <v>7756</v>
       </c>
       <c r="F23" s="6" t="inlineStr"/>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="n">
-        <v>4566</v>
+        <v>4651</v>
       </c>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="n">
-        <v>2457</v>
+        <v>2192</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>4516</v>
+        <v>4521</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>13323</v>
+        <v>12644</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>7794</v>
+        <v>7457</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>2388</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="24">
@@ -2946,10 +2946,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>892</v>
+        <v>881</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2057</v>
+        <v>2145</v>
       </c>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="n">
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K26" s="6" t="n">
         <v>0</v>
@@ -2968,10 +2968,10 @@
         <v>0</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>3388</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="27">
@@ -2982,38 +2982,38 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>8646</v>
+        <v>8595</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>5274</v>
+        <v>5721</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>7440</v>
+        <v>7337</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>9531</v>
+        <v>9653</v>
       </c>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="n">
-        <v>5083</v>
+        <v>5879</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>7278</v>
+        <v>7621</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>6287</v>
+        <v>6207</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>8580</v>
+        <v>8676</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>6924</v>
+        <v>6728</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>12338</v>
+        <v>10677</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>13101</v>
+        <v>12925</v>
       </c>
     </row>
     <row r="28">
@@ -3119,35 +3119,35 @@
         <v>0</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>3941</v>
+        <v>4454</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>7913</v>
+        <v>7638</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>4088</v>
+        <v>4205</v>
       </c>
       <c r="G30" s="6" t="inlineStr"/>
       <c r="H30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1019</v>
+        <v>1112</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>6303</v>
+        <v>6877</v>
       </c>
       <c r="K30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>4996</v>
+        <v>4811</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>11144</v>
+        <v>11491</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>13415</v>
+        <v>13459</v>
       </c>
     </row>
     <row r="31">
@@ -3158,38 +3158,38 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>6456</v>
+        <v>6497</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>20253</v>
+        <v>18692</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>23720</v>
+        <v>23722</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>16515</v>
+        <v>16189</v>
       </c>
       <c r="G31" s="6" t="inlineStr"/>
       <c r="H31" s="6" t="n">
-        <v>5100</v>
+        <v>4953</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>10524</v>
+        <v>10339</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>24066</v>
+        <v>23567</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>6648</v>
+        <v>5529</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>19765</v>
+        <v>18990</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>29100</v>
+        <v>30045</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>34681</v>
+        <v>34362</v>
       </c>
     </row>
     <row r="32">
@@ -3292,38 +3292,38 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2021</v>
+        <v>2833</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H34" s="6" t="inlineStr"/>
       <c r="I34" s="6" t="n">
-        <v>983</v>
+        <v>1075</v>
       </c>
       <c r="J34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1759</v>
+        <v>1655</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>2042</v>
+        <v>2035</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>2804</v>
+        <v>2846</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1146</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="35">
@@ -3334,38 +3334,38 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>7386</v>
+        <v>6903</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>16639</v>
+        <v>17673</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>6558</v>
+        <v>5709</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>8344</v>
+        <v>8823</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>7115</v>
+        <v>6869</v>
       </c>
       <c r="H35" s="6" t="inlineStr"/>
       <c r="I35" s="6" t="n">
-        <v>9669</v>
+        <v>10248</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>4096</v>
+        <v>4064</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>10394</v>
+        <v>10607</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>17553</v>
+        <v>17125</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>12374</v>
+        <v>13111</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>9640</v>
+        <v>8356</v>
       </c>
     </row>
     <row r="36">
@@ -3468,40 +3468,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>12327</v>
+        <v>13155</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>36939</v>
+        <v>38080</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>28826</v>
+        <v>27784</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>21682</v>
+        <v>21930</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>922</v>
+        <v>351</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>3958</v>
+        <v>4152</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>8453</v>
+        <v>8664</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>11718</v>
+        <v>11423</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>14843</v>
+        <v>15207</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>46242</v>
+        <v>46185</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>42239</v>
+        <v>42541</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>37604</v>
+        <v>37560</v>
       </c>
     </row>
     <row r="39">
@@ -3512,40 +3512,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>30191</v>
+        <v>31348</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>68835</v>
+        <v>67956</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>53504</v>
+        <v>54440</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>42658</v>
+        <v>42250</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>8114</v>
+        <v>8083</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>17886</v>
+        <v>17813</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>25982</v>
+        <v>25490</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>31269</v>
+        <v>31311</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>34336</v>
+        <v>34834</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>78836</v>
+        <v>79027</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>71518</v>
+        <v>73274</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>64464</v>
+        <v>65654</v>
       </c>
     </row>
     <row r="40">
